--- a/biology/Zoologie/L'Appel_de_la_forêt_(film,_2020)/L'Appel_de_la_forêt_(film,_2020).xlsx
+++ b/biology/Zoologie/L'Appel_de_la_forêt_(film,_2020)/L'Appel_de_la_forêt_(film,_2020).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Appel de la forêt (The Call of the Wild) est un film d'aventures américain réalisé par Chris Sanders, sorti en 2020. Il s'agit de l'adaptation du roman du même nom de Jack London. Ce film mêle capture de mouvement et prises de vues réelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XIXe siècle, Buck, un chien dressé mais gâté par une riche famille de Santa Clara, est enlevé en pleine nuit puis vendu à un chercheur d'or. L'animal est alors envoyé dans une petite ville du Yukon où la ruée vers l'or bat son plein. Il se heurte à un vieil homme arrivant également dans la ville, John Thornton, et lui rapporte son harmonica qu'il a fait tomber dans la collision. Sur place, Buck est choisi par Perrault, un homme chargé de transporter le courrier. Voyageant à travers les montagnes et les lacs gelés avec son amie Françoise, Perrault découvre vite les qualités exceptionnelles de Buck face à mille dangers. Avant de faire la traversée du retour, à Dawson, Buck recroise le chemin de Thornton en arrêtant le départ du convoi postal pour permettre à celui-ci de confier sa lettre malgré le fait qu'il ait raté la levée du courrier.
 Perdant son travail à la suite de l'arrivée du télégraphe, Perrault vend les chiens dans la ville de Dawson ; ils sont achetés par Hal, un jeune chercheur d'or arriviste. N'arrivant pas à quitter la ville, Hal demande à son compagnon de frapper les chiens pour qu'ils tirent plus fort, mais Thornton intervient et enlève la glace du traineau qui était la vraie cause de l'immobilisation. Il annonce à Hal que le dégel est déjà trop amorcé et que les chiens vont mourir en brisant la glace d'une rivière gelée sous leur poids, mais Hal ne l'écoute pas. Seul dans sa cabane, Thornton décide, en regardant l'harmonica, d'aller retrouver Buck pour le sauver. Thornton retrouve Hal et ses compagnons victimes d'un accident dans la neige, maltraitant les chiens. Buck tente de l'en empêcher et au moment où Hal pointe un revolver sur le chien, Thornton intervient et défend Buck face à son tortionnaire. Hal abandonne Buck et continue d'avancer avec les autres chiens malgré les mises en garde de Thornton.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : The Call of the Wild
@@ -567,7 +583,7 @@
 Genre : aventure, action
 Format : couleur — 2,39:1 — son Dolby Atmos
 Durée : 100 minutes
-Dates de sortie[1] :
+Dates de sortie :
 France : 19 février 2020
 États-Unis : 21 février 2020
 </t>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Harrison Ford (VF : Richard Darbois ; VQ : Normand D'Amour) : John Thornton
@@ -614,7 +632,7 @@
 Jean Louisa Kelly : Katie Miller
 Jamie Bock (VF : Flora Brunier) : Abigail
 Terry Notary : Buck (capture de mouvement)
- Source et légende : version française (VF) sur RS Doublage[2]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +660,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tournage du film démarre fin septembre 2018 près de Los Angeles et s'achève à la mi-décembre de la même année.
 </t>
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,12 +695,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critiques
-En France, le film obtient une note moyenne de 3,2⁄5 sur le site Allociné[5].
-Pour L'Express, « le long-métrage séduit par la beauté de ses images. Résolument sublime, cette nouvelle adaptation donne un beau rôle à Harrison Ford, particulièrement émouvant en aventurier vieillissant. »[6].
-Pour Le Figaro, « Cette adaptation sans finesse du roman de Jack London autour d’un chien est trop simplifiée. »[7].
-Box-office
-Malgré des bonnes critiques, en raison de la pandémie de Covid-19 et de la fermeture des salles de cinéma, le film a été un échec commercial, rapportant seulement 111 millions de dollars pour un budget de 150 millions de dollars. En effet, le film sort en février 2020 et, quand la pandémie éclate, les salles de cinéma ferment leur portes le 14 mars, ce qui oblige au film d’arrêter sa course au box-office.
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le film obtient une note moyenne de 3,2⁄5 sur le site Allociné.
+Pour L'Express, « le long-métrage séduit par la beauté de ses images. Résolument sublime, cette nouvelle adaptation donne un beau rôle à Harrison Ford, particulièrement émouvant en aventurier vieillissant. ».
+Pour Le Figaro, « Cette adaptation sans finesse du roman de Jack London autour d’un chien est trop simplifiée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Appel_de_la_forêt_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Appel_de_la_for%C3%AAt_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré des bonnes critiques, en raison de la pandémie de Covid-19 et de la fermeture des salles de cinéma, le film a été un échec commercial, rapportant seulement 111 millions de dollars pour un budget de 150 millions de dollars. En effet, le film sort en février 2020 et, quand la pandémie éclate, les salles de cinéma ferment leur portes le 14 mars, ce qui oblige au film d’arrêter sa course au box-office.
 </t>
         </is>
       </c>
